--- a/src/test/resources/TestData/Team15-TestData.xlsx
+++ b/src/test/resources/TestData/Team15-TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anbum\OneDrive\Desktop\Anbu\LMS_Hackathon\Team15-Web-Warriors\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11760C47-8824-4E15-8F99-3999FA889F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA9E674-27B2-4D9B-BEB9-68EE40E0CF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,13 +55,13 @@
     <t>ErrorMessage</t>
   </si>
   <si>
-    <t>please check Adminname/password</t>
-  </si>
-  <si>
     <t>Please enter your user name</t>
   </si>
   <si>
     <t>Please enter your password</t>
+  </si>
+  <si>
+    <t>Invalid username and password Please try again</t>
   </si>
 </sst>
 </file>
@@ -410,7 +410,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -447,7 +447,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30">
@@ -458,7 +458,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="35.25" customHeight="1">
@@ -469,7 +469,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
